--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OpenProjects\Nova\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenProjects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E299470-357D-40AB-BC74-E05B73678929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C2B13-3B16-4173-B14A-12BE3CC42BD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="735" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -142,6 +142,26 @@
   </si>
   <si>
     <t>Base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiaoMing</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +181,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,6 +189,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,14 +201,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
@@ -194,8 +209,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -313,62 +356,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,477 +697,423 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="5.125" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="8" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="4"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
-      <c r="AJ1"/>
-      <c r="AK1"/>
-    </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="4"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="4"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-    </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-    </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="4"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-    </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="4"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10001</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
         <v>500</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E8" s="19" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
         <v>200</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
         <v>105</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E10" s="22" t="s">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
         <v>80</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E11" s="22" t="s">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E12" s="22" t="s">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E13" s="22" t="s">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>150</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="I14" s="3"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E15" s="22"/>
-      <c r="I15" s="3"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="E16" s="22"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
+  <mergeCells count="7">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenProjects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C2B13-3B16-4173-B14A-12BE3CC42BD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C501E9-F6C9-427E-AC7E-8B5DA1D9AFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="735" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>基础属性x100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长属性x100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*attributes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,6 +150,18 @@
   </si>
   <si>
     <t>XiaoMing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*attributes_x1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,17 +718,17 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="7"/>
@@ -767,17 +767,17 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
@@ -812,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -855,11 +855,11 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
@@ -937,17 +937,17 @@
         <v>10</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="15"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -985,53 +985,53 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>105</v>
+        <v>6000</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1039,33 +1039,33 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>80000</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>50000</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1090,19 +1090,19 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OpenProjects\AutoStarRail\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C501E9-F6C9-427E-AC7E-8B5DA1D9AFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661C980-98E1-4134-A923-A761837BA922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="735" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>*attributes_x1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +248,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -356,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +376,27 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,42 +406,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -686,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +717,7 @@
     <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,130 +733,130 @@
       <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-    </row>
-    <row r="2" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -854,39 +867,39 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -900,46 +913,46 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -950,29 +963,29 @@
         <v>37</v>
       </c>
       <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7">
@@ -1105,15 +1118,32 @@
         <v>600</v>
       </c>
     </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661C980-98E1-4134-A923-A761837BA922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0BB213-3493-4F5B-A7ED-1D668D81BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -93,18 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Defence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CraticalRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CraticalDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +154,26 @@
   </si>
   <si>
     <t>AttackRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackInterval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +430,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -699,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,17 +742,17 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
@@ -780,17 +791,17 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -825,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
@@ -868,11 +879,11 @@
         <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="1"/>
@@ -950,17 +961,17 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="9"/>
@@ -998,19 +1009,19 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>500000</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>5000</v>
@@ -1021,13 +1032,13 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>200000</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>1500</v>
@@ -1038,64 +1049,64 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>6000</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>21</v>
+      <c r="F10" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>22</v>
+      <c r="F11" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>23</v>
+      <c r="F12" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1103,16 +1114,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13">
         <v>50000</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J13">
         <v>600</v>
@@ -1120,18 +1131,52 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="F14" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <v>3000</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>1400</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>100000</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
     </row>

--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0BB213-3493-4F5B-A7ED-1D668D81BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681A945-9DF8-4ADF-8D70-B4D3F13B5CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="H14">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>27</v>

--- a/Config/Datas/Unit.xlsx
+++ b/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5681A945-9DF8-4ADF-8D70-B4D3F13B5CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C9A37-43AB-459B-999A-441D75DB15B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>27</v>
